--- a/value.xlsx
+++ b/value.xlsx
@@ -635,7 +635,7 @@
     <row r="1" ht="21.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>ca change</t>
+          <t>air</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">

--- a/value.xlsx
+++ b/value.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8505" windowWidth="18195" xWindow="480" yWindow="60"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -120,39 +120,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,11 +521,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -537,7 +537,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="1">
       <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="1">
       <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="1">
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="1">
       <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="1">
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
@@ -577,7 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="1">
       <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
@@ -585,7 +585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="8" s="1">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
@@ -593,7 +593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="9" s="1">
       <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
@@ -601,7 +601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="10" s="1">
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
@@ -610,7 +610,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -628,14 +628,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>eau</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -644,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="2" s="1">
       <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="3" s="1">
       <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="4" s="1">
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="5" s="1">
       <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
@@ -676,7 +676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="6" s="1">
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
@@ -684,7 +684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="7" s="1">
       <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
@@ -692,7 +692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="8" s="1">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
@@ -700,7 +700,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="9" s="1">
       <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
@@ -708,7 +708,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="10" s="1">
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
@@ -717,6 +717,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/value.xlsx
+++ b/value.xlsx
@@ -1,40 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8505" windowWidth="18195" xWindow="480" yWindow="60"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId2" sheetId="2" name="Feuil1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF676767"/>
       <name val="Inherit"/>
       <family val="2"/>
-      <color rgb="FF676767"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,107 +134,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -508,215 +460,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
+    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>f(x)</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="1">
-      <c r="A2" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="1">
-      <c r="A3" s="6" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="1">
-      <c r="A4" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="1">
-      <c r="A5" s="6" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="1">
-      <c r="A6" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="1">
-      <c r="A7" s="6" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="8" s="1">
-      <c r="A8" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="9" s="1">
-      <c r="A9" s="6" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>49</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="10" s="1">
-      <c r="A10" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
+    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>eau</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>f(x)</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="2" s="1">
-      <c r="A2" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="3" s="1">
-      <c r="A3" s="6" t="n">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="4" s="1">
-      <c r="A4" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="5" s="1">
-      <c r="A5" s="6" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>27</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="6" s="1">
-      <c r="A6" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>64</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="7" s="1">
-      <c r="A7" s="6" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="8" s="1">
-      <c r="A8" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>216</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="9" s="1">
-      <c r="A9" s="6" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>343</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.75" r="10" s="1">
-      <c r="A10" s="4" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>512</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/value.xlsx
+++ b/value.xlsx
@@ -1,54 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8505" windowWidth="18195" xWindow="480" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Feuil1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>f(x)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF676767"/>
       <name val="Inherit"/>
       <family val="2"/>
+      <color rgb="FF676767"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,45 +120,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -460,201 +508,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>f(x)</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="1">
+      <c r="A2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="1">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="1">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="B4" s="5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A5" s="6">
+    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="1">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="n">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A6" s="4">
+    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="1">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A7" s="6">
+    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="1">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="n">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A8" s="4">
+    <row customFormat="1" customHeight="1" ht="15.75" r="8" s="1">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="5" t="n">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A9" s="6">
+    <row customFormat="1" customHeight="1" ht="15.75" r="9" s="1">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="n">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75" customFormat="1" s="1">
-      <c r="A10" s="4">
+    <row customFormat="1" customHeight="1" ht="15.75" r="10" s="1">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="5" t="n">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>eau</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>f(x)</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21.75" r="2" s="1">
+      <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="21.75" r="3" s="1">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A3" s="6">
+      <c r="B3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A4" s="4">
+    </row>
+    <row customFormat="1" customHeight="1" ht="21.75" r="4" s="1">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A5" s="6">
+    <row customFormat="1" customHeight="1" ht="21.75" r="5" s="1">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7" t="n">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A6" s="4">
+    <row customFormat="1" customHeight="1" ht="21.75" r="6" s="1">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="5" t="n">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A7" s="6">
+    <row customFormat="1" customHeight="1" ht="21.75" r="7" s="1">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="n">
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A8" s="4">
+    <row customFormat="1" customHeight="1" ht="21.75" r="8" s="1">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="5" t="n">
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A9" s="6">
+    <row customFormat="1" customHeight="1" ht="21.75" r="9" s="1">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="n">
         <v>343</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="1">
-      <c r="A10" s="4">
+    <row customFormat="1" customHeight="1" ht="21.75" r="10" s="1">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="5" t="n">
         <v>512</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/value.xlsx
+++ b/value.xlsx
@@ -635,7 +635,7 @@
     <row r="1" ht="21.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>air</t>
+          <t>terre</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">

--- a/value.xlsx
+++ b/value.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8505" windowWidth="18195" xWindow="480" yWindow="60"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -120,39 +120,39 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,11 +521,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>x</t>
@@ -537,7 +537,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="1">
       <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="1">
       <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="1">
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="1">
       <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="1">
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
@@ -577,7 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="1">
       <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
@@ -585,7 +585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="8" s="1">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
@@ -593,7 +593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="9" s="1">
       <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
@@ -601,7 +601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="15.75" r="10" s="1">
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
@@ -610,7 +610,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -628,11 +628,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="8" width="14.14785714285714"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="8" width="14.14785714285714"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>terre</t>
@@ -644,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="2" s="1">
       <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="3" s="1">
       <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="4" s="1">
       <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="5" s="1">
       <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
@@ -676,7 +676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="6" s="1">
       <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
@@ -684,7 +684,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="7" s="1">
       <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
@@ -692,7 +692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="8" s="1">
       <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
@@ -700,7 +700,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="9" s="1">
       <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
@@ -708,7 +708,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" ht="21.75" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="21.75" r="10" s="1">
       <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
@@ -717,6 +717,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/value.xlsx
+++ b/value.xlsx
@@ -633,10 +633,8 @@
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>terre</t>
-        </is>
+      <c r="A1" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
@@ -646,7 +644,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="21.75" r="2" s="1">
       <c r="A2" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>0</v>
@@ -654,7 +652,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="21.75" r="3" s="1">
       <c r="A3" s="6" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>1</v>

--- a/value.xlsx
+++ b/value.xlsx
@@ -634,7 +634,7 @@
   <sheetData>
     <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1">
       <c r="A1" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="21.75" r="2" s="1">
       <c r="A2" s="4" t="n">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="21.75" r="3" s="1">
       <c r="A3" s="6" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>1</v>

--- a/value.xlsx
+++ b/value.xlsx
@@ -644,7 +644,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="21.75" r="2" s="1">
       <c r="A2" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
     </row>
     <row customFormat="1" customHeight="1" ht="21.75" r="3" s="1">
       <c r="A3" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>1</v>
